--- a/computer/spreadsheet.xlsx
+++ b/computer/spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradl\Documents\GitHub\bradleysansom.github.io\computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D334B6-D041-43ED-89D1-16FBCB1CC79D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F7FA2A-97C3-40EC-9EDA-8AC27A57FF79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="-120" windowWidth="26490" windowHeight="16440" xr2:uid="{7E0EDC26-1AB2-4CA5-A325-E73E16F87213}"/>
+    <workbookView xWindow="4050" yWindow="1185" windowWidth="17610" windowHeight="10680" xr2:uid="{7E0EDC26-1AB2-4CA5-A325-E73E16F87213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Monday</t>
   </si>
@@ -65,6 +65,21 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>Monday x 2</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>New teacher from September</t>
+  </si>
+  <si>
+    <t>Lessons during Lockdown (Ash)</t>
+  </si>
 </sst>
 </file>
 
@@ -73,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +133,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -151,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -174,15 +197,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,13 +268,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1908,16 +1987,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1932,13 +2011,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1419225" y="4552950"/>
+          <a:off x="6457950" y="5543550"/>
           <a:ext cx="4733925" cy="1543049"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 37857"/>
-            <a:gd name="adj2" fmla="val -66804"/>
+            <a:gd name="adj1" fmla="val -63551"/>
+            <a:gd name="adj2" fmla="val -114335"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2353,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E090C6-8D67-49CD-9D0B-E68139D96CDB}">
-  <dimension ref="B1:F21"/>
+  <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,351 +2444,436 @@
     <col min="3" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
     <row r="2" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>43913</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>3.125E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f>SUM(C3,D3,E3)</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>43920</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f t="shared" ref="F4:F18" si="0">SUM(C4,D4,E4)</f>
         <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>43927</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>43934</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="4">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>43941</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>43948</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>0.11458333333333334</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>43955</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>0.1076388888888889</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>43962</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>43969</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>43976</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="4">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>43983</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>43990</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>43997</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>44004</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="4">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>44011</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>44018</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>SUM(C3:C4,C7:C11,C13:C14,C17:C18)</f>
         <v>0.32291666666666669</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f t="shared" ref="D19:F19" si="1">SUM(D3:D4,D7:D11,D13:D14,D17:D18)</f>
         <v>0.40625</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
         <v>0.13194444444444445</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>0.86111111111111105</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>0.8125</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>0.8125</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>0.8125</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>0.39700000000000002</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>0.5</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>0.16200000000000001</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>44081</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3">
+        <f>SUM(C25,D25,E25)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>44088</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <f>SUM(C26,D26,E26)</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C5:E6"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:E4 C7:E11 C13:E14 C17:E18">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2720,6 +2884,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C25:D26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.125"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="6.25E-2"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
